--- a/test/result/standard.xlsx
+++ b/test/result/standard.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1804140816149871lae06aetwvvt"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId180414082925355269tlg26l9upb"/>
   </sheets>
 </workbook>
 </file>

--- a/test/result/standard.xlsx
+++ b/test/result/standard.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId180414082925355269tlg26l9upb"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId18041408422377729vai1jojfa5y"/>
   </sheets>
 </workbook>
 </file>
@@ -38,10 +38,31 @@
   <fonts>
     <font/>
     <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
       <b/>
     </font>
     <font>
+      <name val="monospace"/>
+    </font>
+    <font>
       <b/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
+    </font>
+    <font>
+      <name val="monospace"/>
     </font>
   </fonts>
   <fills>
@@ -58,12 +79,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF00"/>
+        <fgColor rgb="FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -169,13 +190,13 @@
   </cellStyleXfs>
   <cellXfs>
     <xf/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
 </styleSheet>
 </file>
